--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F033F06D-ED9A-C949-965F-086E49C74744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBB11A66-CC51-8E47-945D-5E8CA29B7E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="640" windowWidth="28040" windowHeight="17440" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
+    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="191">
   <si>
     <t>Title</t>
   </si>
@@ -388,9 +388,6 @@
     <t>K.R.</t>
   </si>
   <si>
-    <t>k.long@imperial.ac.uk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kenneth R. Long </t>
   </si>
   <si>
@@ -436,9 +433,6 @@
     <t>P.</t>
   </si>
   <si>
-    <t>p.price@imperial.ac.uk</t>
-  </si>
-  <si>
     <t>P. Price</t>
   </si>
   <si>
@@ -491,13 +485,121 @@
   </si>
   <si>
     <t>Dept. Radiation Physics and Radiobiology, Imperial College Healthcare NHS Trust, London, W2 1NY, UK</t>
+  </si>
+  <si>
+    <t>p.price@imperial.ac.uk; patprice@patprice.co.uk</t>
+  </si>
+  <si>
+    <t>Mx</t>
+  </si>
+  <si>
+    <t>Suriu</t>
+  </si>
+  <si>
+    <t>Liy</t>
+  </si>
+  <si>
+    <t>S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.lyu23@imperial.ac.uk </t>
+  </si>
+  <si>
+    <t>S.Lyu</t>
+  </si>
+  <si>
+    <t>Imperial BioEng</t>
+  </si>
+  <si>
+    <t>Department of Bioengineering, Imperial College London, Exhibition Road, London, SW7 2AZ, UK</t>
+  </si>
+  <si>
+    <t>k.long@imperial.ac.uk; ken.long@STFC.ac.uk; longkr@ic.ac.uk</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Calvin</t>
+  </si>
+  <si>
+    <t>Dyson</t>
+  </si>
+  <si>
+    <t>c.dyson24@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>C.Dyson</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Titus</t>
+  </si>
+  <si>
+    <t>Dascalu</t>
+  </si>
+  <si>
+    <t>T.S.</t>
+  </si>
+  <si>
+    <t>t.dascalu19@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>T.S.Dascalu</t>
+  </si>
+  <si>
+    <t>Mx.</t>
+  </si>
+  <si>
+    <t>Xiangyi</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>X.</t>
+  </si>
+  <si>
+    <t>x.chen24@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>X.Chen</t>
+  </si>
+  <si>
+    <t>Ginevra</t>
+  </si>
+  <si>
+    <t>ginevra.casati18@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>Casati</t>
+  </si>
+  <si>
+    <t>G.</t>
+  </si>
+  <si>
+    <t>G.Casati</t>
+  </si>
+  <si>
+    <t>Diaza</t>
+  </si>
+  <si>
+    <t>d.ariyanto24@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>D.Ariyanto</t>
+  </si>
+  <si>
+    <t>Ariyanto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -632,6 +734,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -930,7 +1040,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -973,11 +1083,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1011,6 +1123,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1035,8 +1148,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P23" totalsRowShown="0">
-  <autoFilter ref="A1:P23" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P29" totalsRowShown="0">
+  <autoFilter ref="A1:P29" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{7F6846C3-59D2-AA4D-98AC-517912ABEFCA}" name="Title"/>
     <tableColumn id="2" xr3:uid="{57A2EF13-D978-8140-93AD-5A9B65216A3E}" name="Name"/>
@@ -1376,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C3A07F-0925-B14D-9B78-C81CB9121297}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1475,7 +1588,7 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1507,7 +1620,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1539,7 +1652,7 @@
         <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1571,7 +1684,7 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1612,7 +1725,7 @@
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1676,7 +1789,7 @@
         <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1685,7 +1798,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N8" t="s">
         <v>65</v>
@@ -1717,7 +1830,7 @@
         <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1752,7 +1865,7 @@
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1781,7 +1894,7 @@
         <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1810,7 +1923,7 @@
         <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -1825,7 +1938,7 @@
         <v>91</v>
       </c>
       <c r="M12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1851,7 +1964,7 @@
         <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1883,7 +1996,7 @@
         <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1909,10 +2022,10 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
@@ -1921,13 +2034,13 @@
         <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
         <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1962,7 +2075,7 @@
         <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1977,7 +2090,7 @@
         <v>91</v>
       </c>
       <c r="M16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2003,7 +2116,7 @@
         <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2038,7 +2151,7 @@
         <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2064,16 +2177,16 @@
         <v>121</v>
       </c>
       <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" t="s">
         <v>122</v>
-      </c>
-      <c r="F19" t="s">
-        <v>123</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -2091,7 +2204,7 @@
         <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -2099,25 +2212,25 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
         <v>125</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>126</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>127</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>128</v>
-      </c>
-      <c r="F20" t="s">
-        <v>129</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2129,7 +2242,7 @@
         <v>90</v>
       </c>
       <c r="N20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2137,25 +2250,25 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
         <v>131</v>
-      </c>
-      <c r="C21" t="s">
-        <v>132</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
       </c>
       <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
         <v>133</v>
-      </c>
-      <c r="F21" t="s">
-        <v>134</v>
       </c>
       <c r="G21" t="s">
         <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -2178,31 +2291,31 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
         <v>135</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>136</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" t="s">
         <v>137</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>138</v>
       </c>
-      <c r="F22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" t="s">
-        <v>140</v>
-      </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2210,25 +2323,25 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
         <v>142</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>143</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>144</v>
       </c>
-      <c r="E23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" t="s">
-        <v>146</v>
-      </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2237,10 +2350,210 @@
         <v>31</v>
       </c>
     </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" t="s">
+        <v>151</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E24" r:id="rId1" xr:uid="{98280FB4-2470-7244-BFF7-ED43D07D75CD}"/>
+    <hyperlink ref="E25" r:id="rId2" xr:uid="{DA3BD787-38DE-4E4F-83C1-E30479DE54B4}"/>
+    <hyperlink ref="E26" r:id="rId3" xr:uid="{6FCBB904-66B4-E843-B593-2858830F3D82}"/>
+    <hyperlink ref="E27" r:id="rId4" xr:uid="{08DEF2C1-FBA6-B64A-9EBC-7318C34003DD}"/>
+    <hyperlink ref="E28" r:id="rId5" xr:uid="{698B0D50-65F6-514E-AA1E-419B7B7BE13E}"/>
+    <hyperlink ref="E29" r:id="rId6" xr:uid="{DC953732-36D6-9241-BDF2-0E2C8F5BAF10}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050113224685/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBB11A66-CC51-8E47-945D-5E8CA29B7E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB51F116-586D-734B-B71B-227991ED24A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="195">
   <si>
     <t>Title</t>
   </si>
@@ -244,21 +244,6 @@
     <t xml:space="preserve">Institut Curie,  73 Rue Claude Bernard,  75005, Paris, France </t>
   </si>
   <si>
-    <t>Hin Tung</t>
-  </si>
-  <si>
-    <t>Lau</t>
-  </si>
-  <si>
-    <t>H.T.</t>
-  </si>
-  <si>
-    <t>h.lau17@IMPERIAL.AC.UK</t>
-  </si>
-  <si>
-    <t>H.T. Lau</t>
-  </si>
-  <si>
     <t>Roland</t>
   </si>
   <si>
@@ -298,9 +283,6 @@
     <t>STFC-ISIS</t>
   </si>
   <si>
-    <t>STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot OX11 0QX, UK</t>
-  </si>
-  <si>
     <t>Ajit</t>
   </si>
   <si>
@@ -412,18 +394,6 @@
     <t>0000-0001-6323-4005</t>
   </si>
   <si>
-    <t>Juergen</t>
-  </si>
-  <si>
-    <t>Pozimski</t>
-  </si>
-  <si>
-    <t>j.pozimski@IMPERIAL.AC.UK</t>
-  </si>
-  <si>
-    <t>J. Pozimski</t>
-  </si>
-  <si>
     <t>Pat</t>
   </si>
   <si>
@@ -496,9 +466,6 @@
     <t>Suriu</t>
   </si>
   <si>
-    <t>Liy</t>
-  </si>
-  <si>
     <t>S.</t>
   </si>
   <si>
@@ -593,6 +560,51 @@
   </si>
   <si>
     <t>Ariyanto</t>
+  </si>
+  <si>
+    <t>Lyu</t>
+  </si>
+  <si>
+    <t>Zaynab</t>
+  </si>
+  <si>
+    <t>Sadhur</t>
+  </si>
+  <si>
+    <t>Nadirah</t>
+  </si>
+  <si>
+    <t>Zakhir</t>
+  </si>
+  <si>
+    <t>Z. Sadhur</t>
+  </si>
+  <si>
+    <t>N. Zakhir</t>
+  </si>
+  <si>
+    <t>N,</t>
+  </si>
+  <si>
+    <t>zaynabsadur@gmail.com</t>
+  </si>
+  <si>
+    <t>nadirahzakhir@gmail.com</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Jurj</t>
+  </si>
+  <si>
+    <t>P.J.</t>
+  </si>
+  <si>
+    <t>paul.jurj13@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>P.B. Jurj</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1160,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P29" totalsRowShown="0">
-  <autoFilter ref="A1:P29" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P30" totalsRowShown="0">
+  <autoFilter ref="A1:P30" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{7F6846C3-59D2-AA4D-98AC-517912ABEFCA}" name="Title"/>
     <tableColumn id="2" xr3:uid="{57A2EF13-D978-8140-93AD-5A9B65216A3E}" name="Name"/>
@@ -1489,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C3A07F-0925-B14D-9B78-C81CB9121297}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1501,7 +1513,7 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="97.33203125" bestFit="1" customWidth="1"/>
@@ -1588,7 +1600,7 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1620,7 +1632,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1652,7 +1664,7 @@
         <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1684,7 +1696,7 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1725,7 +1737,7 @@
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1789,7 +1801,7 @@
         <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1798,7 +1810,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s">
         <v>65</v>
@@ -1809,7 +1821,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -1830,7 +1842,7 @@
         <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1844,7 +1856,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -1865,7 +1877,7 @@
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1873,7 +1885,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
@@ -1894,51 +1906,57 @@
         <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
         <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" t="s">
-        <v>91</v>
-      </c>
-      <c r="M12" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1946,34 +1964,40 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
         <v>93</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" t="s">
-        <v>96</v>
       </c>
       <c r="G13" t="s">
         <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1981,75 +2005,75 @@
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
       </c>
       <c r="G14" t="s">
         <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="G15" t="s">
         <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -2057,40 +2081,34 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
         <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2098,34 +2116,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
         <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -2133,34 +2151,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
         <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -2168,43 +2186,43 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -2212,78 +2230,69 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2291,269 +2300,296 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" t="s">
         <v>134</v>
       </c>
-      <c r="C22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" t="s">
-        <v>155</v>
-      </c>
-      <c r="F22" t="s">
-        <v>137</v>
-      </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H22" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" t="s">
-        <v>143</v>
+        <v>148</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="O23" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
         <v>156</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
         <v>158</v>
       </c>
-      <c r="D24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" t="s">
-        <v>161</v>
-      </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G25" t="s">
         <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" t="s">
         <v>170</v>
       </c>
-      <c r="B26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F26" t="s">
-        <v>175</v>
-      </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
         <v>176</v>
       </c>
-      <c r="B28" t="s">
-        <v>182</v>
-      </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>89</v>
-      </c>
-      <c r="K28" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1" xr:uid="{98280FB4-2470-7244-BFF7-ED43D07D75CD}"/>
-    <hyperlink ref="E25" r:id="rId2" xr:uid="{DA3BD787-38DE-4E4F-83C1-E30479DE54B4}"/>
-    <hyperlink ref="E26" r:id="rId3" xr:uid="{6FCBB904-66B4-E843-B593-2858830F3D82}"/>
-    <hyperlink ref="E27" r:id="rId4" xr:uid="{08DEF2C1-FBA6-B64A-9EBC-7318C34003DD}"/>
-    <hyperlink ref="E28" r:id="rId5" xr:uid="{698B0D50-65F6-514E-AA1E-419B7B7BE13E}"/>
-    <hyperlink ref="E29" r:id="rId6" xr:uid="{DC953732-36D6-9241-BDF2-0E2C8F5BAF10}"/>
+    <hyperlink ref="E23" r:id="rId1" xr:uid="{98280FB4-2470-7244-BFF7-ED43D07D75CD}"/>
+    <hyperlink ref="E24" r:id="rId2" xr:uid="{DA3BD787-38DE-4E4F-83C1-E30479DE54B4}"/>
+    <hyperlink ref="E25" r:id="rId3" xr:uid="{6FCBB904-66B4-E843-B593-2858830F3D82}"/>
+    <hyperlink ref="E26" r:id="rId4" xr:uid="{08DEF2C1-FBA6-B64A-9EBC-7318C34003DD}"/>
+    <hyperlink ref="E27" r:id="rId5" xr:uid="{698B0D50-65F6-514E-AA1E-419B7B7BE13E}"/>
+    <hyperlink ref="E28" r:id="rId6" xr:uid="{DC953732-36D6-9241-BDF2-0E2C8F5BAF10}"/>
+    <hyperlink ref="E29" r:id="rId7" xr:uid="{DC942A60-D62E-2B42-AE4E-96D7E0C31F75}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050113224685/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB51F116-586D-734B-B71B-227991ED24A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{AB51F116-586D-734B-B71B-227991ED24A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C927F9F-5C18-C14E-BA37-791938E28656}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="190">
   <si>
     <t>Title</t>
   </si>
@@ -344,21 +344,6 @@
   </si>
   <si>
     <t>Nicholas P.Dover</t>
-  </si>
-  <si>
-    <t>Oliver</t>
-  </si>
-  <si>
-    <t>Ettlinger</t>
-  </si>
-  <si>
-    <t>O.C.</t>
-  </si>
-  <si>
-    <t>o.ettlinger13@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>O.C. Ettlinger</t>
   </si>
   <si>
     <t>Kenneth</t>
@@ -1160,8 +1145,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P30" totalsRowShown="0">
-  <autoFilter ref="A1:P30" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P29" totalsRowShown="0">
+  <autoFilter ref="A1:P29" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P29">
+    <sortCondition ref="C1:C29"/>
+  </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{7F6846C3-59D2-AA4D-98AC-517912ABEFCA}" name="Title"/>
     <tableColumn id="2" xr3:uid="{57A2EF13-D978-8140-93AD-5A9B65216A3E}" name="Name"/>
@@ -1501,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C3A07F-0925-B14D-9B78-C81CB9121297}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1579,139 +1567,130 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
+        <v>169</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
+        <v>163</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
+        <v>157</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1719,101 +1698,98 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>135</v>
-      </c>
-      <c r="N8" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
         <v>31</v>
@@ -1821,107 +1797,107 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
         <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="N11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1929,25 +1905,25 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="G12" t="s">
         <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1957,6 +1933,12 @@
       </c>
       <c r="K12" t="s">
         <v>85</v>
+      </c>
+      <c r="L12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1964,75 +1946,72 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" t="s">
-        <v>96</v>
-      </c>
-      <c r="N13" t="s">
-        <v>97</v>
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
         <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>84</v>
       </c>
       <c r="K14" t="s">
         <v>85</v>
+      </c>
+      <c r="L14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -2040,25 +2019,25 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
         <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2069,37 +2048,31 @@
       <c r="K15" t="s">
         <v>85</v>
       </c>
-      <c r="L15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M15" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G16" t="s">
         <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -2110,101 +2083,98 @@
       <c r="K16" t="s">
         <v>85</v>
       </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" t="s">
-        <v>111</v>
+        <v>143</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="H18" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -2222,77 +2192,83 @@
         <v>96</v>
       </c>
       <c r="N19" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
-      </c>
-      <c r="N20" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" t="s">
+        <v>47</v>
       </c>
       <c r="O21" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2300,25 +2276,25 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2329,60 +2305,69 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>149</v>
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>157</v>
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
         <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>84</v>
@@ -2393,127 +2378,124 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>163</v>
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>84</v>
-      </c>
-      <c r="K25" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>169</v>
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G27" t="s">
         <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>84</v>
-      </c>
-      <c r="K27" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>177</v>
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2521,71 +2503,42 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" t="s">
         <v>181</v>
-      </c>
-      <c r="C29" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" t="s">
-        <v>185</v>
       </c>
       <c r="G29" t="s">
         <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" t="s">
-        <v>186</v>
-      </c>
-      <c r="G30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1" xr:uid="{98280FB4-2470-7244-BFF7-ED43D07D75CD}"/>
-    <hyperlink ref="E24" r:id="rId2" xr:uid="{DA3BD787-38DE-4E4F-83C1-E30479DE54B4}"/>
-    <hyperlink ref="E25" r:id="rId3" xr:uid="{6FCBB904-66B4-E843-B593-2858830F3D82}"/>
-    <hyperlink ref="E26" r:id="rId4" xr:uid="{08DEF2C1-FBA6-B64A-9EBC-7318C34003DD}"/>
-    <hyperlink ref="E27" r:id="rId5" xr:uid="{698B0D50-65F6-514E-AA1E-419B7B7BE13E}"/>
-    <hyperlink ref="E28" r:id="rId6" xr:uid="{DC953732-36D6-9241-BDF2-0E2C8F5BAF10}"/>
-    <hyperlink ref="E29" r:id="rId7" xr:uid="{DC942A60-D62E-2B42-AE4E-96D7E0C31F75}"/>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{98280FB4-2470-7244-BFF7-ED43D07D75CD}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{DA3BD787-38DE-4E4F-83C1-E30479DE54B4}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{6FCBB904-66B4-E843-B593-2858830F3D82}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{08DEF2C1-FBA6-B64A-9EBC-7318C34003DD}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{698B0D50-65F6-514E-AA1E-419B7B7BE13E}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{DC953732-36D6-9241-BDF2-0E2C8F5BAF10}"/>
+    <hyperlink ref="E27" r:id="rId7" xr:uid="{DC942A60-D62E-2B42-AE4E-96D7E0C31F75}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050113224685/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AB51F116-586D-734B-B71B-227991ED24A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C927F9F-5C18-C14E-BA37-791938E28656}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E5052D-56CD-784F-9B91-457CD138E2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="187">
   <si>
     <t>Title</t>
   </si>
@@ -484,24 +484,6 @@
     <t>C.Dyson</t>
   </si>
   <si>
-    <t>Dr.</t>
-  </si>
-  <si>
-    <t>Titus</t>
-  </si>
-  <si>
-    <t>Dascalu</t>
-  </si>
-  <si>
-    <t>T.S.</t>
-  </si>
-  <si>
-    <t>t.dascalu19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>T.S.Dascalu</t>
-  </si>
-  <si>
     <t>Mx.</t>
   </si>
   <si>
@@ -590,6 +572,15 @@
   </si>
   <si>
     <t>P.B. Jurj</t>
+  </si>
+  <si>
+    <t>R.Razak</t>
+  </si>
+  <si>
+    <t>M. Maxouti</t>
+  </si>
+  <si>
+    <t>Department of Computing, Imperial College London, Exhibition Road, London, SW7 2AZ, UK</t>
   </si>
 </sst>
 </file>
@@ -1145,10 +1136,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P29" totalsRowShown="0">
-  <autoFilter ref="A1:P29" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P29">
-    <sortCondition ref="C1:C29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P28" totalsRowShown="0">
+  <autoFilter ref="A1:P28" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P28">
+    <sortCondition ref="G1:G28"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{7F6846C3-59D2-AA4D-98AC-517912ABEFCA}" name="Title"/>
@@ -1489,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C3A07F-0925-B14D-9B78-C81CB9121297}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1567,28 +1558,28 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1596,171 +1587,159 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>164</v>
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>152</v>
+      <c r="E7" t="s">
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1768,28 +1747,37 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
       </c>
       <c r="O8" t="s">
         <v>31</v>
@@ -1797,28 +1785,28 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1829,54 +1817,57 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
+        <v>163</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>64</v>
@@ -1888,36 +1879,30 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
-      </c>
-      <c r="N11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" t="s">
-        <v>188</v>
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="G12" t="s">
         <v>64</v>
@@ -1934,63 +1919,66 @@
       <c r="K12" t="s">
         <v>85</v>
       </c>
-      <c r="L12" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="G14" t="s">
         <v>64</v>
@@ -1999,7 +1987,7 @@
         <v>135</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>84</v>
@@ -2016,22 +2004,22 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
         <v>64</v>
@@ -2040,7 +2028,7 @@
         <v>135</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>84</v>
@@ -2048,25 +2036,31 @@
       <c r="K15" t="s">
         <v>85</v>
       </c>
+      <c r="L15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
         <v>64</v>
@@ -2075,22 +2069,13 @@
         <v>135</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>84</v>
       </c>
       <c r="K16" t="s">
         <v>85</v>
-      </c>
-      <c r="L16" t="s">
-        <v>95</v>
-      </c>
-      <c r="M16" t="s">
-        <v>96</v>
-      </c>
-      <c r="N16" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2098,60 +2083,87 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>144</v>
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -2159,16 +2171,19 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
@@ -2177,42 +2192,33 @@
         <v>135</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
@@ -2224,10 +2230,13 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="N20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2235,92 +2244,95 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
-      </c>
-      <c r="N21" t="s">
-        <v>47</v>
-      </c>
-      <c r="O21" t="s">
-        <v>31</v>
+        <v>85</v>
+      </c>
+      <c r="L21" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="O22" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="D23" t="s">
         <v>115</v>
       </c>
-      <c r="E23" t="s">
-        <v>116</v>
+      <c r="E23" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="G23" t="s">
         <v>64</v>
@@ -2329,36 +2341,27 @@
         <v>135</v>
       </c>
       <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>84</v>
-      </c>
-      <c r="K23" t="s">
-        <v>85</v>
-      </c>
-      <c r="N23" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
         <v>64</v>
@@ -2367,109 +2370,97 @@
         <v>135</v>
       </c>
       <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="G25" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="O25" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s">
-        <v>94</v>
+        <v>55</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="H26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>84</v>
-      </c>
-      <c r="K26" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>183</v>
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="H27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I27">
         <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2477,72 +2468,45 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="H28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
+      <c r="O28" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1" xr:uid="{98280FB4-2470-7244-BFF7-ED43D07D75CD}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{DA3BD787-38DE-4E4F-83C1-E30479DE54B4}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{6FCBB904-66B4-E843-B593-2858830F3D82}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{08DEF2C1-FBA6-B64A-9EBC-7318C34003DD}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{698B0D50-65F6-514E-AA1E-419B7B7BE13E}"/>
-    <hyperlink ref="E2" r:id="rId6" xr:uid="{DC953732-36D6-9241-BDF2-0E2C8F5BAF10}"/>
-    <hyperlink ref="E27" r:id="rId7" xr:uid="{DC942A60-D62E-2B42-AE4E-96D7E0C31F75}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{98280FB4-2470-7244-BFF7-ED43D07D75CD}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{DA3BD787-38DE-4E4F-83C1-E30479DE54B4}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{08DEF2C1-FBA6-B64A-9EBC-7318C34003DD}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{698B0D50-65F6-514E-AA1E-419B7B7BE13E}"/>
+    <hyperlink ref="E26" r:id="rId5" xr:uid="{DC953732-36D6-9241-BDF2-0E2C8F5BAF10}"/>
+    <hyperlink ref="E23" r:id="rId6" xr:uid="{DC942A60-D62E-2B42-AE4E-96D7E0C31F75}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050113224685/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E5052D-56CD-784F-9B91-457CD138E2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{96E5052D-56CD-784F-9B91-457CD138E2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A403DB19-A7EB-3C48-BA6C-CDD64138C8F0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="188">
   <si>
     <t>Title</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>Department of Computing, Imperial College London, Exhibition Road, London, SW7 2AZ, UK</t>
+  </si>
+  <si>
+    <t>D.O.</t>
   </si>
 </sst>
 </file>
@@ -1482,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C3A07F-0925-B14D-9B78-C81CB9121297}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2413,7 +2416,7 @@
         <v>168</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>166</v>

--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050113224685/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{96E5052D-56CD-784F-9B91-457CD138E2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A403DB19-A7EB-3C48-BA6C-CDD64138C8F0}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{96E5052D-56CD-784F-9B91-457CD138E2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08CCA064-1F79-5747-A25F-1497DE82ED19}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
@@ -550,9 +550,6 @@
     <t>N. Zakhir</t>
   </si>
   <si>
-    <t>N,</t>
-  </si>
-  <si>
     <t>zaynabsadur@gmail.com</t>
   </si>
   <si>
@@ -584,6 +581,9 @@
   </si>
   <si>
     <t>D.O.</t>
+  </si>
+  <si>
+    <t>N.</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1486,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1672,7 +1672,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1969,19 +1969,19 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
         <v>179</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>180</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>181</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>182</v>
-      </c>
-      <c r="F14" t="s">
-        <v>183</v>
       </c>
       <c r="G14" t="s">
         <v>64</v>
@@ -2142,7 +2142,7 @@
         <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
         <v>64</v>
@@ -2300,7 +2300,7 @@
         <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
         <v>64</v>
@@ -2332,7 +2332,7 @@
         <v>115</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F23" t="s">
         <v>174</v>
@@ -2387,10 +2387,10 @@
         <v>173</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -2416,7 +2416,7 @@
         <v>168</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>166</v>

--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050113224685/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{96E5052D-56CD-784F-9B91-457CD138E2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08CCA064-1F79-5747-A25F-1497DE82ED19}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{96E5052D-56CD-784F-9B91-457CD138E2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7878E71E-2A78-9D49-9A12-EA3B692F8344}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
@@ -535,18 +535,12 @@
     <t>Zaynab</t>
   </si>
   <si>
-    <t>Sadhur</t>
-  </si>
-  <si>
     <t>Nadirah</t>
   </si>
   <si>
     <t>Zakhir</t>
   </si>
   <si>
-    <t>Z. Sadhur</t>
-  </si>
-  <si>
     <t>N. Zakhir</t>
   </si>
   <si>
@@ -584,6 +578,12 @@
   </si>
   <si>
     <t>N.</t>
+  </si>
+  <si>
+    <t>Sadur</t>
+  </si>
+  <si>
+    <t>Z. Sadur</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1486,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1672,7 +1672,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1969,19 +1969,19 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
         <v>178</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>179</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>180</v>
-      </c>
-      <c r="E14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" t="s">
-        <v>182</v>
       </c>
       <c r="G14" t="s">
         <v>64</v>
@@ -2142,7 +2142,7 @@
         <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
         <v>64</v>
@@ -2300,7 +2300,7 @@
         <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
         <v>64</v>
@@ -2326,16 +2326,16 @@
         <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
         <v>115</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
         <v>64</v>
@@ -2381,19 +2381,19 @@
         <v>141</v>
       </c>
       <c r="B25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" t="s">
         <v>172</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" t="s">
         <v>173</v>
-      </c>
-      <c r="D25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" t="s">
-        <v>175</v>
       </c>
       <c r="G25" t="s">
         <v>64</v>
@@ -2416,7 +2416,7 @@
         <v>168</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>166</v>
